--- a/CSV/estadisticas2025paralumnos.xlsx
+++ b/CSV/estadisticas2025paralumnos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uri_C\OneDrive\Documentos\GitHub\BigData-y-PoliticasPublicas\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881EC4B-59C2-4A6D-A929-DFBB6A918F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9145665-8F78-4CF2-89AA-5EE7EE7855E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="estadistica_fin_de_cursado" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B262" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -13174,7 +13174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/CSV/estadisticas2025paralumnos.xlsx
+++ b/CSV/estadisticas2025paralumnos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uri_C\OneDrive\Documentos\GitHub\BigData-y-PoliticasPublicas\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9145665-8F78-4CF2-89AA-5EE7EE7855E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7714DD9-6F08-46C0-B18F-ED5C61F0805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13174,8 +13174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
